--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekty\excel-import-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAB173F-E830-4C7D-995E-0FA86F9550E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEAF71-620A-4D04-BBEB-9269C0177F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C75A51D-E4AB-416B-A53B-47D25773115A}"/>
+    <workbookView xWindow="34560" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{8C75A51D-E4AB-416B-A53B-47D25773115A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>S/N</t>
   </si>
@@ -95,30 +95,9 @@
     <t>Set no</t>
   </si>
   <si>
-    <t>stainless steel</t>
-  </si>
-  <si>
-    <t>8000 kg/m3</t>
-  </si>
-  <si>
-    <t>140 kg/m3</t>
-  </si>
-  <si>
-    <t>cylindrical form</t>
-  </si>
-  <si>
-    <t>0.000016 g</t>
-  </si>
-  <si>
-    <t>1.2 kg/m3</t>
-  </si>
-  <si>
     <t>CALIBRATION OBJECT - CHARACTERISTICS [B]</t>
   </si>
   <si>
-    <t>G0601916</t>
-  </si>
-  <si>
     <t>Mass</t>
   </si>
   <si>
@@ -128,36 +107,18 @@
     <t>Calibration Certificate</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>0 kg/m3</t>
-  </si>
-  <si>
-    <t>0.000005 g</t>
-  </si>
-  <si>
-    <t>5.0000043 g</t>
-  </si>
-  <si>
     <t>REFERENCE WEIGHT - CHARACTERISTICS [A]</t>
   </si>
   <si>
     <t>Marking/type</t>
   </si>
   <si>
-    <t>UMA 5</t>
-  </si>
-  <si>
     <t>Scale interval</t>
   </si>
   <si>
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>0.0000001 g</t>
-  </si>
-  <si>
     <t>CALIBRATION REPORT : K220/19</t>
   </si>
   <si>
@@ -176,21 +137,12 @@
     <t>Temperature [C]</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
     <t>Humidity [%]</t>
   </si>
   <si>
     <t>Pressure [hPa]</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
     <t>AMBIENT CONDITIONS AT MEASUREMENT START</t>
   </si>
   <si>
@@ -200,24 +152,9 @@
     <t>Measurement correction</t>
   </si>
   <si>
-    <t>25.34</t>
-  </si>
-  <si>
-    <t>25.40</t>
-  </si>
-  <si>
     <t>AMBIENT CONDITIONS AT MEASUREMENT END</t>
   </si>
   <si>
-    <t>26.90</t>
-  </si>
-  <si>
-    <t>976.90</t>
-  </si>
-  <si>
-    <t>1.1361 kg/m3</t>
-  </si>
-  <si>
     <t>CYCLE NO.1</t>
   </si>
   <si>
@@ -287,22 +224,7 @@
     <t>Order number:</t>
   </si>
   <si>
-    <t>0,0000130 g</t>
-  </si>
-  <si>
-    <t>0,00000037g</t>
-  </si>
-  <si>
-    <t>0,0000025g</t>
-  </si>
-  <si>
-    <t>5,000173g</t>
-  </si>
-  <si>
-    <t>0g</t>
-  </si>
-  <si>
-    <t>Z7/19</t>
+    <t xml:space="preserve">DIFFERENCE (B-A): </t>
   </si>
 </sst>
 </file>
@@ -507,11 +429,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -522,9 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,15 +472,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -555,15 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6D67C9-4E07-4DEB-8769-DEB9C09760E5}">
   <dimension ref="B4:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,33 +867,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -993,174 +915,160 @@
       <c r="P8" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25">
+      <c r="C12" s="26"/>
+      <c r="D12" s="34">
         <v>876665</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="22" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="34">
         <v>2018</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="25">
-        <v>876665</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
@@ -1182,444 +1090,377 @@
       <c r="N18" s="17"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="25">
-        <v>93479</v>
-      </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="17"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="25">
-        <v>61800</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="17"/>
-      <c r="D30" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="39">
-        <v>2019</v>
-      </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
+      <c r="B33" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="48">
-        <v>1.4</v>
-      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="50"/>
-      <c r="L35" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="B37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="38"/>
+      <c r="N38" s="39"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37">
-        <v>26.9</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37">
-        <v>976.6</v>
-      </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="36"/>
+      <c r="B39" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45">
-        <v>26.8</v>
-      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
-      <c r="L40" s="42">
-        <v>976.5</v>
-      </c>
-      <c r="M40" s="43"/>
-      <c r="N40" s="44"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="32"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="B42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="33"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="38"/>
+      <c r="N43" s="39"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37">
-        <v>27</v>
-      </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37">
-        <v>977</v>
-      </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="36"/>
+      <c r="B44" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="45" t="s">
-        <v>59</v>
-      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="43"/>
-      <c r="N45" s="44"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="51" t="s">
-        <v>61</v>
+      <c r="D46" s="51">
+        <f>L16</f>
+        <v>0</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -1634,12 +1475,10 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="E48" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="E48" s="6"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1648,12 +1487,10 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="E49" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="E49" s="6"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1662,12 +1499,10 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="E50" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -1676,12 +1511,10 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="E51" s="9">
-        <v>2</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -1690,12 +1523,10 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="E52" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="E52" s="6"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -1704,12 +1535,10 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="E53" s="14">
-        <v>5.0000000000000004E-6</v>
-      </c>
+      <c r="E53" s="14"/>
       <c r="F53" s="15"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -1719,46 +1548,38 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="E54" s="10">
-        <v>43558</v>
-      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="11">
-        <v>43558.491932870369</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E58" s="6"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="8">
@@ -1766,21 +1587,21 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
+      <c r="G69" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="56" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="7"/>
@@ -1788,7 +1609,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="55"/>
@@ -1800,7 +1621,7 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
@@ -1812,7 +1633,7 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -1824,7 +1645,7 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -1836,7 +1657,7 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="8">
@@ -1844,21 +1665,21 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
+      <c r="G76" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="56" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G77" s="57"/>
       <c r="H77" s="7"/>
@@ -1866,7 +1687,7 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -1878,7 +1699,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="55"/>
@@ -1890,7 +1711,7 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C80" s="55"/>
       <c r="D80" s="55"/>
@@ -1902,7 +1723,7 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="55"/>
@@ -1914,7 +1735,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="8">
@@ -1922,21 +1743,21 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
+      <c r="G83" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
       <c r="F84" s="56" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G84" s="57"/>
       <c r="H84" s="7"/>
@@ -1944,7 +1765,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
@@ -1956,7 +1777,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
@@ -1968,7 +1789,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
@@ -1980,7 +1801,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
@@ -1992,7 +1813,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="8">
@@ -2000,21 +1821,21 @@
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
+      <c r="G90" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C91" s="55"/>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="F91" s="56" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G91" s="57"/>
       <c r="H91" s="7"/>
@@ -2022,7 +1843,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
@@ -2034,7 +1855,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
@@ -2046,7 +1867,7 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
@@ -2058,7 +1879,7 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -2070,7 +1891,7 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="3">
@@ -2078,21 +1899,21 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
+      <c r="G97" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="62" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G98" s="63"/>
       <c r="H98" s="2"/>
@@ -2100,7 +1921,7 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="55"/>
@@ -2112,7 +1933,7 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C100" s="55"/>
       <c r="D100" s="55"/>
@@ -2124,7 +1945,7 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="55"/>
@@ -2136,7 +1957,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
@@ -2148,7 +1969,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="3">
@@ -2156,21 +1977,21 @@
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
+      <c r="G104" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
       <c r="F105" s="62" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G105" s="63"/>
       <c r="H105" s="2"/>
@@ -2178,7 +1999,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
@@ -2190,7 +2011,7 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
@@ -2202,7 +2023,7 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -2214,7 +2035,7 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
@@ -2226,7 +2047,7 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="3">
@@ -2234,21 +2055,21 @@
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
+      <c r="G111" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="54" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
       <c r="E112" s="55"/>
       <c r="F112" s="62" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G112" s="63"/>
       <c r="H112" s="2"/>
@@ -2256,7 +2077,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="55"/>
@@ -2268,7 +2089,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
@@ -2280,7 +2101,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="54" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="55"/>
@@ -2292,7 +2113,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="54" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="55"/>
